--- a/SVM_results_7-23.xlsx
+++ b/SVM_results_7-23.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wu Di\Documents\HRV-ML-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BE60E-88B8-4EA3-88A9-00959185DCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6F09CD-7A7A-4F92-982C-A69F8AD6C03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DEA3F166-63E5-4FAC-98C4-3074CD849DCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DEA3F166-63E5-4FAC-98C4-3074CD849DCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="best_subjects" sheetId="1" r:id="rId1"/>
+    <sheet name="all_subjects" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Event</t>
   </si>
@@ -90,13 +91,190 @@
   </si>
   <si>
     <t>Sip-n-puff_A0</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Headarray_A0_weightedLabel top features:  ['vlf', 'hf', 'RMSSD', 'lf', 'ApEn']</t>
+  </si>
+  <si>
+    <t>Headarray_A1_weightedLabel top features:  ['SDNN', 'SD1', 'lf', 'hf', 'lfhf']</t>
+  </si>
+  <si>
+    <t>Headarray_A2_weightedLabel top features:  ['SDNN', 'SD1', 'SD1SD2', 'hf', 'lfhf']</t>
+  </si>
+  <si>
+    <t>Sip-n-puff_A0_weightedLabel top features:  ['ApEn', 'SD1SD2', 'SD1', 'hf', 'SDNN']</t>
+  </si>
+  <si>
+    <t>Joystick_A0_weightedLabel top features:  ['SD2', 'RMSSD', 'lfhf', 'SD1SD2', 'SDNN']</t>
+  </si>
+  <si>
+    <t>Joystick_A1_weightedLabel top features:  ['ApEn', 'lf', 'RMSSD', 'SDNN', 'hf']</t>
+  </si>
+  <si>
+    <t>Joystick_A2_weightedLabel top features:  ['SD1SD2', 'SDNN', 'hf', 'RMSSD', 'ApEn']</t>
+  </si>
+  <si>
+    <t>vlf</t>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
+  <si>
+    <t>RMSSD</t>
+  </si>
+  <si>
+    <t>ApEn</t>
+  </si>
+  <si>
+    <t>SDNN</t>
+  </si>
+  <si>
+    <t>SD1</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>lfhf</t>
+  </si>
+  <si>
+    <t>SD1SD2</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>Headarray_A1_weightedLabel top features:  ['hf', 'RMSSD', 'ApEn', 'lf', 'SDNN']</t>
+  </si>
+  <si>
+    <t>Headarray_A2_weightedLabel top features:  ['ApEn', 'SD1', 'SDNN', 'hf', 'lfhf']</t>
+  </si>
+  <si>
+    <t>Sip-n-puff_A0_weightedLabel top features:  ['SD1SD2', 'ApEn', 'RMSSD', 'hf', 'lfhf']</t>
+  </si>
+  <si>
+    <t>Joystick_A0_weightedLabel top features:  ['SD2', 'SDNN', 'SD1SD2', 'RMSSD', 'vlf']</t>
+  </si>
+  <si>
+    <t>Joystick_A1_weightedLabel top features:  ['hf', 'ApEn', 'RMSSD', 'SDNN', 'lf']</t>
+  </si>
+  <si>
+    <t>Joystick_A2_weightedLabel top features:  ['SDNN', 'SD1SD2', 'hf', 'RMSSD', 'vlf']</t>
+  </si>
+  <si>
+    <r>
+      <t>Headarray_A0_weightedLabel top features:  ['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vlf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lfhf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMSSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SDNN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>']</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +282,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,9 +316,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,6 +335,2360 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weighted</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>best_subjects!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5s Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>best_subjects!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Headarray_A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headarray_A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headarray_A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sip-n-puff_A0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Joystick_A0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Joystick_A1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Joystick_A2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Headarray</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sip-n-puff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Joystick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>best_subjects!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.74702380952380898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79359430604982195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82613768961493494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69102296450939404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86046511627906896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74085365853658502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96945337620578698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73717217787913303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69102296450939404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74150787075393498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A367-4C55-A42B-ED662D05C096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>best_subjects!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10s Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>best_subjects!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Headarray_A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headarray_A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headarray_A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sip-n-puff_A0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Joystick_A0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Joystick_A1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Joystick_A2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Headarray</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sip-n-puff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Joystick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>best_subjects!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72093023255813904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78554778554778504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89303904923599298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75558867362145998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78074866310160396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92146596858638696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97572815533980495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76317923763179196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75558867362145998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72658227848101198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A367-4C55-A42B-ED662D05C096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>best_subjects!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30s Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>best_subjects!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Headarray_A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headarray_A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headarray_A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sip-n-puff_A0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Joystick_A0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Joystick_A1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Joystick_A2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Headarray</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sip-n-puff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Joystick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>best_subjects!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.870056497175141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85833333333333295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96122448979591801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87147887323943596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97402597402597402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95804195804195802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97391304347826002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83121951219512102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87147887323943596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77691107644305701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A367-4C55-A42B-ED662D05C096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>best_subjects!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60s Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>best_subjects!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Headarray_A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headarray_A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headarray_A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sip-n-puff_A0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Joystick_A0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Joystick_A1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Joystick_A2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Headarray</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sip-n-puff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Joystick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>best_subjects!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90425531914893598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93195266272189303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98206278026905802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93785850860420605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88750676041103205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93785850860420605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90834845735027203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A367-4C55-A42B-ED662D05C096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="588740032"/>
+        <c:axId val="591413936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588740032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591413936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="591413936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588740032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>30s,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 60s Weighted</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>best_subjects!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30s Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>best_subjects!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Headarray_A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headarray_A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headarray_A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sip-n-puff_A0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Joystick_A0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Joystick_A1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Joystick_A2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Headarray</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sip-n-puff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Joystick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>best_subjects!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.870056497175141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85833333333333295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96122448979591801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87147887323943596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97402597402597402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95804195804195802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97391304347826002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83121951219512102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87147887323943596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77691107644305701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A0E-4C0A-84BE-739FEF61C4E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>best_subjects!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60s Weighted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>best_subjects!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Headarray_A0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headarray_A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headarray_A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sip-n-puff_A0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Joystick_A0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Joystick_A1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Joystick_A2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Headarray</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sip-n-puff</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Joystick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>best_subjects!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90425531914893598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93195266272189303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98206278026905802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93785850860420605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88750676041103205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93785850860420605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90834845735027203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A0E-4C0A-84BE-739FEF61C4E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="658886080"/>
+        <c:axId val="591402288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658886080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591402288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="591402288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658886080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916CDCBA-B417-47CF-8A5B-35BF0AD4A910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81667A12-BECF-489E-B599-30C56F21AFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,10 +2988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFE8463-A680-4D24-8886-2B532C59E692}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,22 +3040,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.74404761904761896</v>
+        <v>0.74702380952380898</v>
       </c>
       <c r="C2" s="1">
-        <v>0.74404761904761896</v>
+        <v>0.74702380952380898</v>
       </c>
       <c r="D2" s="1">
-        <v>0.71162790697674405</v>
+        <v>0.72093023255813904</v>
       </c>
       <c r="E2" s="1">
-        <v>0.72558139534883703</v>
+        <v>0.72093023255813904</v>
       </c>
       <c r="F2" s="1">
-        <v>0.83615819209039499</v>
+        <v>0.870056497175141</v>
       </c>
       <c r="G2" s="1">
-        <v>0.83615819209039499</v>
+        <v>0.870056497175141</v>
       </c>
       <c r="H2" s="1">
         <v>0.90425531914893598</v>
@@ -529,10 +3075,10 @@
         <v>0.79359430604982195</v>
       </c>
       <c r="D3" s="1">
-        <v>0.78088578088577998</v>
+        <v>0.78554778554778504</v>
       </c>
       <c r="E3" s="1">
-        <v>0.78088578088577998</v>
+        <v>0.78554778554778504</v>
       </c>
       <c r="F3" s="1">
         <v>0.85833333333333295</v>
@@ -541,7 +3087,7 @@
         <v>0.85833333333333295</v>
       </c>
       <c r="H3" s="1">
-        <v>0.95562130177514704</v>
+        <v>0.93195266272189303</v>
       </c>
       <c r="I3" s="1">
         <v>0.93195266272189303</v>
@@ -596,13 +3142,13 @@
         <v>0.87147887323943596</v>
       </c>
       <c r="G5" s="1">
-        <v>0.83098591549295697</v>
+        <v>0.87147887323943596</v>
       </c>
       <c r="H5" s="1">
-        <v>0.89674952198852698</v>
+        <v>0.93785850860420605</v>
       </c>
       <c r="I5" s="1">
-        <v>0.94168260038240903</v>
+        <v>0.93785850860420605</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -631,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0.99618320610686995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -639,16 +3185,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.76219512195121897</v>
+        <v>0.74085365853658502</v>
       </c>
       <c r="C7" s="1">
-        <v>0.80182926829268297</v>
+        <v>0.79878048780487798</v>
       </c>
       <c r="D7" s="1">
-        <v>0.84816753926701505</v>
+        <v>0.92146596858638696</v>
       </c>
       <c r="E7" s="1">
-        <v>0.91623036649214595</v>
+        <v>0.92146596858638696</v>
       </c>
       <c r="F7" s="1">
         <v>0.95804195804195802</v>
@@ -680,7 +3226,7 @@
         <v>0.97572815533980495</v>
       </c>
       <c r="F8" s="1">
-        <v>0.97971014492753605</v>
+        <v>0.97391304347826002</v>
       </c>
       <c r="G8" s="1">
         <v>0.97391304347826002</v>
@@ -709,16 +3255,16 @@
         <v>0.76317923763179196</v>
       </c>
       <c r="F9" s="1">
-        <v>0.83219512195121903</v>
+        <v>0.83121951219512102</v>
       </c>
       <c r="G9" s="1">
-        <v>0.83219512195121903</v>
+        <v>0.83121951219512102</v>
       </c>
       <c r="H9" s="1">
         <v>0.88750676041103205</v>
       </c>
       <c r="I9" s="1">
-        <v>0.88696592752839298</v>
+        <v>0.88750676041103205</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -726,10 +3272,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.69519832985386198</v>
+        <v>0.69102296450939404</v>
       </c>
       <c r="C10" s="1">
-        <v>0.69519832985386198</v>
+        <v>0.69102296450939404</v>
       </c>
       <c r="D10" s="1">
         <v>0.75558867362145998</v>
@@ -738,13 +3284,13 @@
         <v>0.75558867362145998</v>
       </c>
       <c r="F10" s="1">
-        <v>0.83098591549295697</v>
+        <v>0.87147887323943596</v>
       </c>
       <c r="G10" s="1">
         <v>0.87147887323943596</v>
       </c>
       <c r="H10" s="1">
-        <v>0.94168260038240903</v>
+        <v>0.93785850860420605</v>
       </c>
       <c r="I10" s="1">
         <v>0.93785850860420605</v>
@@ -758,7 +3304,7 @@
         <v>0.74150787075393498</v>
       </c>
       <c r="C11" s="1">
-        <v>0.67522783761391802</v>
+        <v>0.67854183927091904</v>
       </c>
       <c r="D11" s="1">
         <v>0.72658227848101198</v>
@@ -773,10 +3319,406 @@
         <v>0.77379095163806499</v>
       </c>
       <c r="H11" s="1">
-        <v>0.88656987295825695</v>
+        <v>0.90834845735027203</v>
       </c>
       <c r="I11" s="1">
-        <v>0.89201451905626095</v>
+        <v>0.86479128856624299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F803BB2-C6BF-4545-B5F9-466230B8ACED}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="69.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.83732057416267902</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.83732057416267902</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.84934497816593801</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.80131004366812197</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.973015873015873</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.973015873015873</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.847009735744089</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.85952712100138995</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.91752577319587603</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.91752577319587603</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.87830687830687804</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.90476190476190399</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.9609375</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.9609375</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.78626543209876498</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.80632716049382702</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.847009735744089</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.85952712100138995</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.78411633109619605</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.79306487695749395</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <f>SUM(B24:B33)</f>
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E24:E33)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
